--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428823.5542834573</v>
+        <v>426286.0810656192</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937636</v>
+        <v>16636980.42967733</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129929</v>
+        <v>2069122.084925923</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6701275.935277541</v>
+        <v>7356295.260884005</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>144.9422074992859</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>138.0197822400959</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>47.61404849749848</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>51.49013190434628</v>
+        <v>46.22290301879837</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>54.49360828358961</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>146.2292968796462</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>155.743409076887</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.13954148002296</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>99.82364316221077</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>56.39758722032917</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.77478224577128</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>45.91568880648644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2248,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>14.14416275345451</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,10 +2481,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>54.18430635300834</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2615,7 +2617,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>124.6962773732646</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3190,10 +3192,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>32.98066327132653</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345451</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>45.91568880648644</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>46.45303019605558</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1171.796632052941</v>
+        <v>781.090633274849</v>
       </c>
       <c r="C2" t="n">
-        <v>1171.796632052941</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.796632052941</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.796632052941</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
@@ -4331,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4367,13 +4369,13 @@
         <v>1744.502472739147</v>
       </c>
       <c r="W2" t="n">
-        <v>1598.096202537849</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X2" t="n">
-        <v>1598.096202537849</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y2" t="n">
-        <v>1598.096202537849</v>
+        <v>781.090633274849</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862857</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862857</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392438</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.799427915185</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>406.9896642947481</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>241.3983893205757</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862855</v>
+        <v>101.4962150109503</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2545.844385276825</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>2267.41138452993</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V4" t="n">
-        <v>1980.45587640036</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1708.429471986652</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X4" t="n">
-        <v>1463.037717320064</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1235.618046634173</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1172.213421425801</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="C5" t="n">
-        <v>1172.213421425801</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="D5" t="n">
-        <v>1172.213421425801</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
         <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2618.050592184613</v>
+        <v>2623.371025402339</v>
       </c>
       <c r="U5" t="n">
-        <v>2358.82828950163</v>
+        <v>2364.148722719356</v>
       </c>
       <c r="V5" t="n">
-        <v>1996.211339435457</v>
+        <v>2001.531772653183</v>
       </c>
       <c r="W5" t="n">
-        <v>1591.35588484649</v>
+        <v>1596.676318064216</v>
       </c>
       <c r="X5" t="n">
-        <v>1172.213421425801</v>
+        <v>1177.533854643527</v>
       </c>
       <c r="Y5" t="n">
-        <v>1172.213421425801</v>
+        <v>769.2477309431802</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.7186013536161</v>
+        <v>867.0923738769416</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1568898368411</v>
+        <v>694.5306623601665</v>
       </c>
       <c r="D7" t="n">
-        <v>562.2788970383638</v>
+        <v>528.6526695616892</v>
       </c>
       <c r="E7" t="n">
-        <v>392.520893289101</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F7" t="n">
-        <v>215.8138392508572</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2615.016777660126</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2369.137331238581</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.330557968361</v>
+        <v>2090.704330491686</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1803.748822362116</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425083</v>
+        <v>1531.722417948408</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1286.330663281821</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.537220072603</v>
+        <v>1058.910992595929</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703436</v>
+        <v>927.4534741707607</v>
       </c>
       <c r="C8" t="n">
-        <v>210.7177913537669</v>
+        <v>489.3110013541841</v>
       </c>
       <c r="D8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="E8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O8" t="n">
         <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q8" t="n">
         <v>2670.060826431428</v>
@@ -4838,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W8" t="n">
         <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1789.095648603258</v>
+        <v>1769.953970925867</v>
       </c>
       <c r="C11" t="n">
-        <v>1350.953175786681</v>
+        <v>1769.953970925867</v>
       </c>
       <c r="D11" t="n">
-        <v>915.0433909611256</v>
+        <v>1334.044186100311</v>
       </c>
       <c r="E11" t="n">
-        <v>481.2686461194208</v>
+        <v>900.2694412586061</v>
       </c>
       <c r="F11" t="n">
-        <v>53.40121652862856</v>
+        <v>472.4020116678139</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>71.00418029107777</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>71.00418029107777</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="J11" t="n">
-        <v>488.6559039815464</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="K11" t="n">
-        <v>1149.495958523325</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="L11" t="n">
-        <v>1293.567921177998</v>
+        <v>944.1063535311627</v>
       </c>
       <c r="M11" t="n">
-        <v>1293.567921177998</v>
+        <v>1817.625316144108</v>
       </c>
       <c r="N11" t="n">
-        <v>1293.567921177998</v>
+        <v>2691.144278757052</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="R11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>3529.369545910889</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>3428.537583120777</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>3023.68212853181</v>
       </c>
       <c r="X11" t="n">
-        <v>1846.062908421772</v>
+        <v>2604.539665111121</v>
       </c>
       <c r="Y11" t="n">
-        <v>1789.095648603258</v>
+        <v>2196.253541410774</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>559.5729615199214</v>
+        <v>576.7591359095105</v>
       </c>
       <c r="C12" t="n">
-        <v>453.1165003565636</v>
+        <v>470.3026747461528</v>
       </c>
       <c r="D12" t="n">
-        <v>358.0262115031169</v>
+        <v>375.2123858927061</v>
       </c>
       <c r="E12" t="n">
-        <v>263.9057968300706</v>
+        <v>281.0919712196598</v>
       </c>
       <c r="F12" t="n">
-        <v>180.5219584462322</v>
+        <v>197.7081328358214</v>
       </c>
       <c r="G12" t="n">
-        <v>95.13686871241609</v>
+        <v>112.3230431020053</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="I12" t="n">
-        <v>79.46488968908616</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="J12" t="n">
-        <v>404.0232146552985</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="K12" t="n">
-        <v>404.0232146552985</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="L12" t="n">
-        <v>404.0232146552985</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="M12" t="n">
-        <v>404.0232146552985</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="N12" t="n">
-        <v>404.0232146552985</v>
+        <v>256.1922691914131</v>
       </c>
       <c r="O12" t="n">
-        <v>404.0232146552985</v>
+        <v>256.1922691914131</v>
       </c>
       <c r="P12" t="n">
-        <v>1058.729261281022</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="Q12" t="n">
-        <v>1599.468199913098</v>
+        <v>1616.654374302687</v>
       </c>
       <c r="R12" t="n">
-        <v>1716.640978007438</v>
+        <v>1733.827152397027</v>
       </c>
       <c r="S12" t="n">
-        <v>1653.185540455821</v>
+        <v>1670.37171484541</v>
       </c>
       <c r="T12" t="n">
-        <v>1523.006896786422</v>
+        <v>1540.193071176011</v>
       </c>
       <c r="U12" t="n">
-        <v>1346.67034978639</v>
+        <v>1363.85652417598</v>
       </c>
       <c r="V12" t="n">
-        <v>1147.55283184839</v>
+        <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>962.2300775815838</v>
+        <v>979.4162519711729</v>
       </c>
       <c r="X12" t="n">
-        <v>807.3626418204638</v>
+        <v>824.5488162100529</v>
       </c>
       <c r="Y12" t="n">
-        <v>680.8768625996845</v>
+        <v>698.0630369892737</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.8972536055599</v>
+        <v>1149.645551530099</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3355420887848</v>
+        <v>977.083840013324</v>
       </c>
       <c r="D13" t="n">
-        <v>565.4575492903075</v>
+        <v>811.2058472148467</v>
       </c>
       <c r="E13" t="n">
-        <v>395.6995455410447</v>
+        <v>641.447843465584</v>
       </c>
       <c r="F13" t="n">
-        <v>218.9924915028009</v>
+        <v>464.7407894273402</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>299.1495144531679</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862856</v>
+        <v>159.2473401435424</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>70.58739091821778</v>
       </c>
       <c r="J13" t="n">
-        <v>139.9809016933184</v>
+        <v>157.1670760829076</v>
       </c>
       <c r="K13" t="n">
-        <v>414.739356264454</v>
+        <v>431.9255306540432</v>
       </c>
       <c r="L13" t="n">
-        <v>832.9492380324151</v>
+        <v>850.1354124220042</v>
       </c>
       <c r="M13" t="n">
-        <v>1292.433105213328</v>
+        <v>1309.619279602917</v>
       </c>
       <c r="N13" t="n">
-        <v>1734.691908370973</v>
+        <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2154.361157596754</v>
+        <v>2171.547331986343</v>
       </c>
       <c r="P13" t="n">
-        <v>2501.868051567096</v>
+        <v>2519.054225956685</v>
       </c>
       <c r="Q13" t="n">
-        <v>2670.060826431428</v>
+        <v>2687.247000821017</v>
       </c>
       <c r="R13" t="n">
-        <v>2670.060826431428</v>
+        <v>2687.247000821017</v>
       </c>
       <c r="S13" t="n">
-        <v>2651.821657388744</v>
+        <v>2687.247000821017</v>
       </c>
       <c r="T13" t="n">
-        <v>2405.942210967199</v>
+        <v>2441.367554399472</v>
       </c>
       <c r="U13" t="n">
-        <v>2127.509210220304</v>
+        <v>2373.257508144844</v>
       </c>
       <c r="V13" t="n">
-        <v>1840.553702090735</v>
+        <v>2086.302000015274</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.527297677026</v>
+        <v>1814.275595601566</v>
       </c>
       <c r="X13" t="n">
-        <v>1323.135543010439</v>
+        <v>1568.883840934978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.715872324547</v>
+        <v>1341.464170249086</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1752.351007163417</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1752.351007163417</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1316.441222337862</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>882.6664774961569</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>454.7990479053647</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>53.40121652862856</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>714.2412710704069</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>714.2412710704069</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>1375.081325612185</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2035.921380153963</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2670.060826431428</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2265.205371842461</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1846.062908421772</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1752.351007163417</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>404.0232146552985</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1132.45937714051</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>959.897665623735</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>794.0196728252577</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2616690759949</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>447.554615037751</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9633400635787</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0611657539532</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2356.071333755254</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>2069.115825625685</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1797.089421211977</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1551.697666545389</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1324.277995859497</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1789.095648603258</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>481.2686461194208</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>714.2412710704069</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1375.081325612185</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1375.081325612185</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>1375.081325612185</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>2035.921380153963</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472833</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>2623.681342788512</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2215.395219088166</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1043.799427915185</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>871.2377163984103</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>705.359723599933</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>535.6017198506702</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>358.8946658124264</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>193.303390838254</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2267.41138452993</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1980.45587640036</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1708.429471986652</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1463.037717320064</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1235.618046634173</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3184.458419759167</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C22" t="n">
-        <v>3011.896708242392</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D22" t="n">
-        <v>2846.018715443915</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.260711694652</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F22" t="n">
         <v>2661.973678610354</v>
@@ -5932,28 +5934,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164046</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.277038478154</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3205.876241053795</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>3033.31452953702</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>2978.582906958224</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>2978.582906958224</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>2801.87585291998</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>2636.284577945808</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
         <v>2496.382403636182</v>
@@ -6172,25 +6174,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>4953.800644836978</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>4707.921198415434</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>4429.488197668539</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>4142.53268953897</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>3870.506285125261</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>3625.114530458674</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>3397.694859772782</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6227,49 +6229,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6314,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O27" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.396843814754</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>968.8351322979789</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6682,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6704,25 +6706,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>1133.616358467827</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.616358467827</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.616358467827</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.616358467827</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1133.616358467827</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3184.458419759167</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C34" t="n">
-        <v>3011.896708242392</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D34" t="n">
-        <v>2978.582906958224</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E34" t="n">
-        <v>2978.582906958224</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F34" t="n">
-        <v>2801.87585291998</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G34" t="n">
-        <v>2636.284577945808</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H34" t="n">
         <v>2496.382403636182</v>
@@ -6880,28 +6882,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.277038478154</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3184.458419759167</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>3011.896708242392</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>2846.018715443915</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>2676.260711694652</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>4408.070376373911</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>4121.114868244342</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>3849.088463830633</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.696709164046</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.277038478154</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7421,40 +7423,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3184.458419759167</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>3011.896708242392</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>2846.018715443915</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>2676.260711694652</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>2499.553657656408</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>3376.277038478154</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1789.095648603258</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1350.953175786681</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>915.0433909611256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>481.2686461194208</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862856</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862856</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>714.2412710704069</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.081325612185</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1375.081325612185</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1375.081325612185</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2035.921380153963</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2123.562040472833</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.060826431428</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2670.060826431428</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2623.681342788512</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2215.395219088166</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>966.5813843420327</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>794.0196728252577</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>794.0196728252577</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>624.2616690759949</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>447.554615037751</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G46" t="n">
-        <v>281.9633400635787</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.9492380324151</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370973</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434797</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013252</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136788</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1631.211428413499</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.819673746912</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1158.40000306102</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8055,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744751</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>316.389926674475</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>882.3423864777221</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>882.342386477722</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>882.3423864777219</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>846.6921890442795</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>667.5152066078568</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078567</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>640.5448952297625</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078568</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078567</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>88.52591951401018</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,10 +10354,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>973.8822356326327</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078568</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078567</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>88.52591951401018</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -22556,16 +22558,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>255.8646925437911</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>266.1834802232472</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>40.15930123557293</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -22793,10 +22795,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22835,7 +22837,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>166.3764229513455</v>
+        <v>171.6436518368934</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22951,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.146865729424235</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>275.8072779004125</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>275.8072779004129</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>259.167137403301</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.8056752430139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>311.4284802175718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>160.7958207444068</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0349065174842</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>39.52293549722788</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>131.238549599166</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.7958207444068</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.0353499799959</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>222.8531101735158</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457416.489895357</v>
+        <v>457416.4898953571</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457416.4898953571</v>
+        <v>547174.4624659232</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>457416.4898953571</v>
+        <v>712594.9064668069</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>457416.489895357</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712594.906466807</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712594.9064668069</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712594.906466807</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712594.906466807</v>
+        <v>712594.9064668069</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457416.489895357</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>177550.3949404003</v>
       </c>
       <c r="C2" t="n">
+        <v>177550.3949404003</v>
+      </c>
+      <c r="D2" t="n">
         <v>177550.3949404002</v>
       </c>
-      <c r="D2" t="n">
-        <v>177550.3949404001</v>
-      </c>
       <c r="E2" t="n">
-        <v>177550.3949404002</v>
+        <v>212390.773088113</v>
       </c>
       <c r="F2" t="n">
-        <v>177550.3949404002</v>
+        <v>276600.23167211</v>
       </c>
       <c r="G2" t="n">
-        <v>177550.3949404002</v>
+        <v>276600.23167211</v>
       </c>
       <c r="H2" t="n">
         <v>276600.23167211</v>
@@ -26353,7 +26355,7 @@
         <v>276600.23167211</v>
       </c>
       <c r="P2" t="n">
-        <v>177550.3949404002</v>
+        <v>276600.23167211</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>64142.66971118459</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>113440.8343649017</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53535.79253228986</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>96971.03661968646</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>43649.82185483626</v>
       </c>
       <c r="E4" t="n">
-        <v>43649.82185483626</v>
+        <v>52215.14383011701</v>
       </c>
       <c r="F4" t="n">
-        <v>43649.82185483626</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="G4" t="n">
-        <v>43649.82185483626</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="L4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="M4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="P4" t="n">
-        <v>43649.82185483626</v>
+        <v>68000.69828933279</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>53646.4170978455</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26511,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,28 +26524,28 @@
         <v>-164011.6500602385</v>
       </c>
       <c r="C6" t="n">
-        <v>59688.04852380628</v>
+        <v>59688.0485238063</v>
       </c>
       <c r="D6" t="n">
-        <v>59688.0485238062</v>
+        <v>59688.04852380624</v>
       </c>
       <c r="E6" t="n">
-        <v>93315.64852380625</v>
+        <v>42386.54244896586</v>
       </c>
       <c r="F6" t="n">
-        <v>93315.64852380627</v>
+        <v>17440.46041208296</v>
       </c>
       <c r="G6" t="n">
-        <v>93315.64852380622</v>
+        <v>130881.2947769847</v>
       </c>
       <c r="H6" t="n">
-        <v>-33903.28300109079</v>
+        <v>130881.2947769847</v>
       </c>
       <c r="I6" t="n">
         <v>130881.2947769847</v>
       </c>
       <c r="J6" t="n">
-        <v>-43770.05394072153</v>
+        <v>-43770.05394072144</v>
       </c>
       <c r="K6" t="n">
         <v>130881.2947769847</v>
@@ -26552,16 +26554,16 @@
         <v>130881.2947769847</v>
       </c>
       <c r="M6" t="n">
-        <v>130881.2947769847</v>
+        <v>77345.50224469486</v>
       </c>
       <c r="N6" t="n">
-        <v>130881.2947769847</v>
+        <v>33910.2581572982</v>
       </c>
       <c r="O6" t="n">
         <v>130881.2947769847</v>
       </c>
       <c r="P6" t="n">
-        <v>93315.64852380625</v>
+        <v>130881.2947769847</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26792,19 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>882.3423864777221</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27018,16 +27020,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>214.8271798698651</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>395.9181169070232</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070232</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>214.8271798698651</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>395.9181169070232</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078571</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744751</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>316.389926674475</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>882.3423864777221</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>882.342386477722</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>882.3423864777219</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>846.6921890442795</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>667.5152066078568</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078567</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>640.5448952297625</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078568</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>667.5152066078567</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>88.52591951401018</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,10 +37074,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>973.8822356326327</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>667.5152066078568</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078567</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>88.52591951401018</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>426286.0810656192</v>
+        <v>424163.9419445638</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>149.4370413361365</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>138.0197822400959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>47.61404849749848</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571953</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>46.22290301879837</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>253.4820711511195</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.49360828358961</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146.2292968796462</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>42.18426706466302</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1372,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>148.9043116157771</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>99.82364316221077</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>781.090633274849</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C2" t="n">
-        <v>342.9481604582723</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D2" t="n">
-        <v>342.9481604582723</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>342.9481604582723</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="X2" t="n">
-        <v>920.5045547294914</v>
+        <v>2215.395219088166</v>
       </c>
       <c r="Y2" t="n">
-        <v>781.090633274849</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6967183329918</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>406.9896642947481</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>241.3983893205757</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>101.4962150109503</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262989</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.766466719711</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.9481604582723</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>342.9481604582723</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>342.9481604582723</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>342.9481604582723</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2623.371025402339</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2364.148722719356</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2001.531772653183</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>1596.676318064216</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X5" t="n">
-        <v>1177.533854643527</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="Y5" t="n">
-        <v>769.2477309431802</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>867.0923738769416</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C7" t="n">
-        <v>694.5306623601665</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D7" t="n">
-        <v>528.6526695616892</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E7" t="n">
-        <v>358.8946658124264</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2615.016777660126</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2369.137331238581</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2090.704330491686</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>1803.748822362116</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W7" t="n">
-        <v>1531.722417948408</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1286.330663281821</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y7" t="n">
-        <v>1058.910992595929</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="8">
@@ -4783,73 +4783,73 @@
         <v>927.4534741707607</v>
       </c>
       <c r="C8" t="n">
-        <v>489.3110013541841</v>
+        <v>489.311001354184</v>
       </c>
       <c r="D8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="E8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>801.8819313892767</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892767</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365255</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2181.181631776704</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355599</v>
+        <v>1762.039168356015</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655252</v>
+        <v>1353.753044655668</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1769.953970925867</v>
+        <v>1350.083034612666</v>
       </c>
       <c r="C11" t="n">
-        <v>1769.953970925867</v>
+        <v>911.9405617960897</v>
       </c>
       <c r="D11" t="n">
-        <v>1334.044186100311</v>
+        <v>911.9405617960897</v>
       </c>
       <c r="E11" t="n">
-        <v>900.2694412586061</v>
+        <v>761.5321662245976</v>
       </c>
       <c r="F11" t="n">
-        <v>472.4020116678139</v>
+        <v>761.5321662245976</v>
       </c>
       <c r="G11" t="n">
-        <v>71.00418029107777</v>
+        <v>360.1343348478616</v>
       </c>
       <c r="H11" t="n">
-        <v>71.00418029107777</v>
+        <v>71.00418029107782</v>
       </c>
       <c r="I11" t="n">
-        <v>70.58739091821778</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J11" t="n">
-        <v>70.58739091821778</v>
+        <v>505.8420783711357</v>
       </c>
       <c r="K11" t="n">
-        <v>70.58739091821778</v>
+        <v>1340.192370329314</v>
       </c>
       <c r="L11" t="n">
-        <v>944.1063535311627</v>
+        <v>1985.406820365843</v>
       </c>
       <c r="M11" t="n">
-        <v>1817.625316144108</v>
+        <v>1985.406820365843</v>
       </c>
       <c r="N11" t="n">
-        <v>2691.144278757052</v>
+        <v>1985.406820365843</v>
       </c>
       <c r="O11" t="n">
-        <v>3529.369545910889</v>
+        <v>1985.406820365843</v>
       </c>
       <c r="P11" t="n">
-        <v>3529.369545910889</v>
+        <v>2813.71669519924</v>
       </c>
       <c r="Q11" t="n">
-        <v>3529.369545910889</v>
+        <v>3360.215481157834</v>
       </c>
       <c r="R11" t="n">
-        <v>3529.369545910889</v>
+        <v>3529.369545910891</v>
       </c>
       <c r="S11" t="n">
-        <v>3529.369545910889</v>
+        <v>3445.717672094728</v>
       </c>
       <c r="T11" t="n">
-        <v>3529.369545910889</v>
+        <v>3225.650444967767</v>
       </c>
       <c r="U11" t="n">
-        <v>3529.369545910889</v>
+        <v>2966.428142284783</v>
       </c>
       <c r="V11" t="n">
-        <v>3428.537583120777</v>
+        <v>2603.81119221861</v>
       </c>
       <c r="W11" t="n">
-        <v>3023.68212853181</v>
+        <v>2603.81119221861</v>
       </c>
       <c r="X11" t="n">
-        <v>2604.539665111121</v>
+        <v>2184.668728797921</v>
       </c>
       <c r="Y11" t="n">
-        <v>2196.253541410774</v>
+        <v>1776.382605097574</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7591359095105</v>
+        <v>576.7591359095106</v>
       </c>
       <c r="C12" t="n">
-        <v>470.3026747461528</v>
+        <v>470.3026747461529</v>
       </c>
       <c r="D12" t="n">
-        <v>375.2123858927061</v>
+        <v>375.2123858927062</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0919712196598</v>
+        <v>281.0919712196599</v>
       </c>
       <c r="F12" t="n">
-        <v>197.7081328358214</v>
+        <v>197.7081328358215</v>
       </c>
       <c r="G12" t="n">
-        <v>112.3230431020053</v>
+        <v>112.3230431020054</v>
       </c>
       <c r="H12" t="n">
-        <v>70.58739091821778</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I12" t="n">
-        <v>70.58739091821778</v>
+        <v>96.65106407867542</v>
       </c>
       <c r="J12" t="n">
-        <v>70.58739091821778</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="K12" t="n">
-        <v>70.58739091821778</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="L12" t="n">
-        <v>70.58739091821778</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="M12" t="n">
-        <v>70.58739091821778</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="N12" t="n">
-        <v>256.1922691914131</v>
+        <v>421.2093890448878</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1922691914131</v>
+        <v>1075.915435670611</v>
       </c>
       <c r="P12" t="n">
         <v>1075.915435670611</v>
@@ -5159,13 +5159,13 @@
         <v>1164.739006237979</v>
       </c>
       <c r="W12" t="n">
-        <v>979.4162519711729</v>
+        <v>979.4162519711731</v>
       </c>
       <c r="X12" t="n">
-        <v>824.5488162100529</v>
+        <v>824.548816210053</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0630369892737</v>
+        <v>698.0630369892738</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.645551530099</v>
+        <v>921.0834279951491</v>
       </c>
       <c r="C13" t="n">
-        <v>977.083840013324</v>
+        <v>748.5217164783741</v>
       </c>
       <c r="D13" t="n">
-        <v>811.2058472148467</v>
+        <v>582.6437236798968</v>
       </c>
       <c r="E13" t="n">
-        <v>641.447843465584</v>
+        <v>412.885719930634</v>
       </c>
       <c r="F13" t="n">
-        <v>464.7407894273402</v>
+        <v>236.1786658923901</v>
       </c>
       <c r="G13" t="n">
-        <v>299.1495144531679</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="H13" t="n">
-        <v>159.2473401435424</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="I13" t="n">
-        <v>70.58739091821778</v>
+        <v>70.58739091821782</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1670760829076</v>
+        <v>157.1670760829077</v>
       </c>
       <c r="K13" t="n">
-        <v>431.9255306540432</v>
+        <v>431.9255306540433</v>
       </c>
       <c r="L13" t="n">
-        <v>850.1354124220042</v>
+        <v>850.1354124220043</v>
       </c>
       <c r="M13" t="n">
         <v>1309.619279602917</v>
@@ -5214,37 +5214,37 @@
         <v>1751.878082760562</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.547331986343</v>
+        <v>2171.547331986344</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.054225956685</v>
+        <v>2519.054225956686</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.247000821017</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.247000821017</v>
+        <v>2687.247000821018</v>
       </c>
       <c r="S13" t="n">
-        <v>2687.247000821017</v>
+        <v>2669.007831778333</v>
       </c>
       <c r="T13" t="n">
-        <v>2441.367554399472</v>
+        <v>2423.128385356788</v>
       </c>
       <c r="U13" t="n">
-        <v>2373.257508144844</v>
+        <v>2144.695384609894</v>
       </c>
       <c r="V13" t="n">
-        <v>2086.302000015274</v>
+        <v>1857.739876480324</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.275595601566</v>
+        <v>1585.713472066616</v>
       </c>
       <c r="X13" t="n">
-        <v>1568.883840934978</v>
+        <v>1340.321717400028</v>
       </c>
       <c r="Y13" t="n">
-        <v>1341.464170249086</v>
+        <v>1112.902046714136</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,7 +5287,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5360,19 +5360,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5527,25 +5527,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6682,34 +6682,34 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7441,22 +7441,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7981,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P5" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>316.3899266744751</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>882.3423864777221</v>
+        <v>651.7317677136666</v>
       </c>
       <c r="M11" t="n">
-        <v>882.342386477722</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>882.3423864777219</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>846.6921890442795</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>107.1930383200168</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.1834802232472</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22713,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>40.15930123557293</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>171.6436518368934</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>161.4689676353629</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22953,13 +22953,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>103.1553467313937</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>275.8072779004125</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.622632978414</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>280.5326857775106</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>259.167137403301</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457416.4898953571</v>
+        <v>457416.4898953569</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457416.4898953571</v>
+        <v>457416.4898953569</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>547174.4624659232</v>
+        <v>547174.4624659234</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712594.9064668068</v>
+        <v>712594.9064668069</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712594.9064668068</v>
+        <v>712594.9064668069</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712594.9064668069</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
     <row r="11">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177550.3949404003</v>
+        <v>177550.3949404002</v>
       </c>
       <c r="C2" t="n">
-        <v>177550.3949404003</v>
+        <v>177550.3949404002</v>
       </c>
       <c r="D2" t="n">
         <v>177550.3949404002</v>
@@ -26328,7 +26328,7 @@
         <v>276600.23167211</v>
       </c>
       <c r="G2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721101</v>
       </c>
       <c r="H2" t="n">
         <v>276600.23167211</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>64142.66971118459</v>
+        <v>64142.66971118481</v>
       </c>
       <c r="F3" t="n">
-        <v>113440.8343649017</v>
+        <v>113440.8343649015</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53535.79253228986</v>
+        <v>53535.79253229006</v>
       </c>
       <c r="N3" t="n">
-        <v>96971.03661968646</v>
+        <v>96971.0366196863</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>43649.82185483626</v>
       </c>
       <c r="C4" t="n">
-        <v>43649.82185483626</v>
+        <v>43649.82185483625</v>
       </c>
       <c r="D4" t="n">
         <v>43649.82185483626</v>
       </c>
       <c r="E4" t="n">
-        <v>52215.14383011701</v>
+        <v>52215.14383011704</v>
       </c>
       <c r="F4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="G4" t="n">
         <v>68000.69828933282</v>
       </c>
-      <c r="G4" t="n">
-        <v>68000.69828933279</v>
-      </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933281</v>
@@ -26450,16 +26450,16 @@
         <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53646.4170978455</v>
+        <v>53646.41709784554</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-164011.6500602385</v>
+        <v>-164506.5402888199</v>
       </c>
       <c r="C6" t="n">
-        <v>59688.0485238063</v>
+        <v>59193.158295225</v>
       </c>
       <c r="D6" t="n">
-        <v>59688.04852380624</v>
+        <v>59193.158295225</v>
       </c>
       <c r="E6" t="n">
-        <v>42386.54244896586</v>
+        <v>42057.55878299251</v>
       </c>
       <c r="F6" t="n">
-        <v>17440.46041208296</v>
+        <v>17417.23607270054</v>
       </c>
       <c r="G6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.0704376021</v>
       </c>
       <c r="H6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.0704376021</v>
       </c>
       <c r="I6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.0704376021</v>
       </c>
       <c r="J6" t="n">
-        <v>-43770.05394072144</v>
+        <v>-43793.27828010407</v>
       </c>
       <c r="K6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.070437602</v>
       </c>
       <c r="L6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.0704376021</v>
       </c>
       <c r="M6" t="n">
-        <v>77345.50224469486</v>
+        <v>77322.27790531205</v>
       </c>
       <c r="N6" t="n">
-        <v>33910.2581572982</v>
+        <v>33887.03381791578</v>
       </c>
       <c r="O6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.0704376021</v>
       </c>
       <c r="P6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.0704376021</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>882.3423864777221</v>
+        <v>882.3423864777228</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>214.8271798698651</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="F4" t="n">
-        <v>395.9181169070232</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698651</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.9181169070232</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.8271798698651</v>
+        <v>214.8271798698659</v>
       </c>
       <c r="N4" t="n">
-        <v>395.9181169070232</v>
+        <v>395.9181169070225</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.5152066078572</v>
-      </c>
       <c r="P5" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35175,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>316.3899266744751</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>882.3423864777221</v>
+        <v>651.7317677136666</v>
       </c>
       <c r="M11" t="n">
-        <v>882.342386477722</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>882.3423864777219</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>846.6921890442795</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35655,10 +35655,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523913</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
